--- a/biology/Médecine/Anne_Noury/Anne_Noury.xlsx
+++ b/biology/Médecine/Anne_Noury/Anne_Noury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Noury (3 janvier 1901 à Saint-Malo - 15 mai 1945 à Bergen-Belsen[1]) est un médecin du travail et une résistante française, militante de Combat Zone Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Noury (3 janvier 1901 à Saint-Malo - 15 mai 1945 à Bergen-Belsen) est un médecin du travail et une résistante française, militante de Combat Zone Nord.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amie de Jane Sivadon et d’Odile Kienlen, c’est une pionnière de Libération nationale en zone occupée.
 Dans le logement qu’elle partage avec Anne-Marie Boumier, elle reçoit Henri Frenay, Robert Guédon et Pierre de Froment, mais aussi deux agents de liaison de Berty Albrecht et Henri Frenay : Henri Devillers et Jean-Paul Lien.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Archives nationales
 Fondation pour la Mémoire de la déportation
